--- a/Data/Client_DataProvider.xlsx
+++ b/Data/Client_DataProvider.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\POM4Aug2025\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5F4E53-883E-4BC8-926C-7C615D13C358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC351E88-B27B-4896-8778-AFF504228F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,7 +252,7 @@
     <t>ArrayList&lt;String&gt; actual = ArrayList&lt;&gt;();</t>
   </si>
   <si>
-    <t>John dep3</t>
+    <t>John dep4</t>
   </si>
 </sst>
 </file>
@@ -910,7 +910,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1058,7 +1058,7 @@
   <dimension ref="A2:R13"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
